--- a/db/Encomendas.xlsx
+++ b/db/Encomendas.xlsx
@@ -348,7 +348,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,6 +440,90 @@
         <v>1170</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>F88677_1556809041</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>43587.66487990729</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>jbp</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Placas Gráficas</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fabricante: nvidia; Marca: ASUS; Designação: RTX 2060; Quantidade: 6; </t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+      <c r="I3" t="n">
+        <v>390</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>F88677_1556809041</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>43587.66487990729</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>jbp</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Placas Gráficas</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fabricante: nvidia; Marca: ASUS; Designação: RTX 2070; Quantidade: 6; </t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" t="n">
+        <v>490</v>
+      </c>
+      <c r="J4" t="n">
+        <v>980</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/db/Encomendas.xlsx
+++ b/db/Encomendas.xlsx
@@ -348,7 +348,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,6 +524,216 @@
         <v>980</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>F91818_1557315647</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>43593.52833754876</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>jbp</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Produtos para Cães</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nome: Proplan Dental Probar 150gr; </t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J5" t="n">
+        <v>8.699999999999999</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>F91818_1557315647</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>43593.52833754876</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>jbp</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>3</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nome: TRIXIE BEBEDOURO ESFERA EM VIDRO; </t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="J6" t="n">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>F19246_1557315711</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>43593.52906726243</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>jbp</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Produtos para Cães</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>3</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nome: ROYAL CANIN GIANT ADULT; </t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+      <c r="I7" t="n">
+        <v>54.99</v>
+      </c>
+      <c r="J7" t="n">
+        <v>274.95</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Brevemente</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>43593.53025248715</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>jbp</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Produtos para Cães</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nome: ROYAL CANIN BABYDOG MILK; </t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" t="n">
+        <v>21.87</v>
+      </c>
+      <c r="J8" t="n">
+        <v>43.74</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>F14899_1557315880</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>43593.53102328711</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>jbp</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Produtos para Gatos</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>3</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fabricante: ROYAL CANIN AROMATIC EXIGENT; </t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="J9" t="n">
+        <v>9.56</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/db/Encomendas.xlsx
+++ b/db/Encomendas.xlsx
@@ -348,7 +348,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,6 +524,48 @@
         <v>980</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>F39345_1557412283</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>43594.6468402738</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>jbp</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Produtos para Gatos</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fabricante: PRO PLAN CAT ELEGANT SALMÃO; </t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="J5" t="n">
+        <v>8.800000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/db/Encomendas.xlsx
+++ b/db/Encomendas.xlsx
@@ -348,7 +348,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>43594.6468402738</v>
+        <v>43594.64684027381</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -564,6 +564,48 @@
       </c>
       <c r="J5" t="n">
         <v>8.800000000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Brevemente</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>44145.65398057337</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>dadadada</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Produtos para Gatos</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>3</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fabricante: ROYAL CANIN AROMATIC EXIGENT; </t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4.78</v>
       </c>
     </row>
   </sheetData>
